--- a/氣象性能評估工具V2/data/obs/backup/2016-06-05_t2_obs.xlsx
+++ b/氣象性能評估工具V2/data/obs/backup/2016-06-05_t2_obs.xlsx
@@ -91,7 +91,7 @@
     <t>恆春</t>
   </si>
   <si>
-    <t>2016-06-05 00:00:00</t>
+    <t>2016-06-05-00</t>
   </si>
   <si>
     <t>23.1</t>
@@ -157,7 +157,7 @@
     <t>29.3</t>
   </si>
   <si>
-    <t>2016-06-05 01:00:00</t>
+    <t>2016-06-05-01</t>
   </si>
   <si>
     <t>22.5</t>
@@ -199,7 +199,7 @@
     <t>27.0</t>
   </si>
   <si>
-    <t>2016-06-05 02:00:00</t>
+    <t>2016-06-05-02</t>
   </si>
   <si>
     <t>21.8</t>
@@ -223,7 +223,7 @@
     <t>26.9</t>
   </si>
   <si>
-    <t>2016-06-05 03:00:00</t>
+    <t>2016-06-05-03</t>
   </si>
   <si>
     <t>21.5</t>
@@ -244,7 +244,7 @@
     <t>26.7</t>
   </si>
   <si>
-    <t>2016-06-05 04:00:00</t>
+    <t>2016-06-05-04</t>
   </si>
   <si>
     <t>21.6</t>
@@ -271,7 +271,7 @@
     <t>26.6</t>
   </si>
   <si>
-    <t>2016-06-05 05:00:00</t>
+    <t>2016-06-05-05</t>
   </si>
   <si>
     <t>23.7</t>
@@ -280,7 +280,7 @@
     <t>5.3</t>
   </si>
   <si>
-    <t>2016-06-05 06:00:00</t>
+    <t>2016-06-05-06</t>
   </si>
   <si>
     <t>22.8</t>
@@ -310,7 +310,7 @@
     <t>30.3</t>
   </si>
   <si>
-    <t>2016-06-05 07:00:00</t>
+    <t>2016-06-05-07</t>
   </si>
   <si>
     <t>23.2</t>
@@ -355,7 +355,7 @@
     <t>31.0</t>
   </si>
   <si>
-    <t>2016-06-05 08:00:00</t>
+    <t>2016-06-05-08</t>
   </si>
   <si>
     <t>29.8</t>
@@ -385,7 +385,7 @@
     <t>30.8</t>
   </si>
   <si>
-    <t>2016-06-05 09:00:00</t>
+    <t>2016-06-05-09</t>
   </si>
   <si>
     <t>25.0</t>
@@ -418,7 +418,7 @@
     <t>33.1</t>
   </si>
   <si>
-    <t>2016-06-05 10:00:00</t>
+    <t>2016-06-05-10</t>
   </si>
   <si>
     <t>32.7</t>
@@ -442,7 +442,7 @@
     <t>33.0</t>
   </si>
   <si>
-    <t>2016-06-05 11:00:00</t>
+    <t>2016-06-05-11</t>
   </si>
   <si>
     <t>31.8</t>
@@ -460,7 +460,7 @@
     <t>33.7</t>
   </si>
   <si>
-    <t>2016-06-05 12:00:00</t>
+    <t>2016-06-05-12</t>
   </si>
   <si>
     <t>24.4</t>
@@ -481,7 +481,7 @@
     <t>33.8</t>
   </si>
   <si>
-    <t>2016-06-05 13:00:00</t>
+    <t>2016-06-05-13</t>
   </si>
   <si>
     <t>24.0</t>
@@ -502,7 +502,7 @@
     <t>8.1</t>
   </si>
   <si>
-    <t>2016-06-05 14:00:00</t>
+    <t>2016-06-05-14</t>
   </si>
   <si>
     <t>23.4</t>
@@ -520,7 +520,7 @@
     <t>30.7</t>
   </si>
   <si>
-    <t>2016-06-05 15:00:00</t>
+    <t>2016-06-05-15</t>
   </si>
   <si>
     <t>24.2</t>
@@ -532,7 +532,7 @@
     <t>8.2</t>
   </si>
   <si>
-    <t>2016-06-05 16:00:00</t>
+    <t>2016-06-05-16</t>
   </si>
   <si>
     <t>22.3</t>
@@ -550,7 +550,7 @@
     <t>7.3</t>
   </si>
   <si>
-    <t>2016-06-05 17:00:00</t>
+    <t>2016-06-05-17</t>
   </si>
   <si>
     <t>21.9</t>
@@ -568,7 +568,7 @@
     <t>6.7</t>
   </si>
   <si>
-    <t>2016-06-05 18:00:00</t>
+    <t>2016-06-05-18</t>
   </si>
   <si>
     <t>20.7</t>
@@ -586,7 +586,7 @@
     <t>6.6</t>
   </si>
   <si>
-    <t>2016-06-05 19:00:00</t>
+    <t>2016-06-05-19</t>
   </si>
   <si>
     <t>26.3</t>
@@ -595,7 +595,7 @@
     <t>13.5</t>
   </si>
   <si>
-    <t>2016-06-05 20:00:00</t>
+    <t>2016-06-05-20</t>
   </si>
   <si>
     <t>20.2</t>
@@ -613,7 +613,7 @@
     <t>25.9</t>
   </si>
   <si>
-    <t>2016-06-05 21:00:00</t>
+    <t>2016-06-05-21</t>
   </si>
   <si>
     <t>20.3</t>
@@ -634,7 +634,7 @@
     <t>6.5</t>
   </si>
   <si>
-    <t>2016-06-05 22:00:00</t>
+    <t>2016-06-05-22</t>
   </si>
   <si>
     <t>19.7</t>
@@ -643,7 +643,7 @@
     <t>6.1</t>
   </si>
   <si>
-    <t>2016-06-05 23:00:00</t>
+    <t>2016-06-05-23</t>
   </si>
   <si>
     <t>21.0</t>
